--- a/REGULAR/HRMO/MAESTRECAMPO, LORENA ATE.xlsx
+++ b/REGULAR/HRMO/MAESTRECAMPO, LORENA ATE.xlsx
@@ -1198,7 +1198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1397,6 +1397,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2006,8 +2007,8 @@
   <dimension ref="A2:M2467"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A495" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E510" sqref="E510"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2168,7 +2169,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>264.35700000000003</v>
+        <v>265.60700000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2178,13 +2179,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>364.16700000000003</v>
+        <v>365.41700000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
-      <c r="M9">
-        <f>SUM(Table1[[#This Row],[BALANCE]:[BALANCE ]])</f>
-        <v>628.52400000000011</v>
+      <c r="M9" s="68">
+        <f>SUM(E9,I9)</f>
+        <v>631.02400000000011</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -12160,13 +12161,19 @@
       </c>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A508" s="41"/>
+      <c r="A508" s="41">
+        <v>45261</v>
+      </c>
       <c r="B508" s="20"/>
-      <c r="C508" s="13"/>
+      <c r="C508" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D508" s="40"/>
       <c r="E508" s="9"/>
       <c r="F508" s="20"/>
-      <c r="G508" s="13"/>
+      <c r="G508" s="13">
+        <v>1.25</v>
+      </c>
       <c r="H508" s="40"/>
       <c r="I508" s="9"/>
       <c r="J508" s="11"/>
